--- a/data/case1/20/P_device_1.xlsx
+++ b/data/case1/20/P_device_1.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.06949761291958681</v>
+        <v>0.0763005239001599</v>
       </c>
       <c r="B1" s="0">
-        <v>0.069497612136530856</v>
+        <v>-0.07630052526628002</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.01617296359602961</v>
+        <v>-0.063755276670105887</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.016172964427168816</v>
+        <v>0.063755275294328922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.057023849314509233</v>
+        <v>-0.035576518170188254</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.057023850127324471</v>
+        <v>0.035576516778762793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.076982199229785941</v>
+        <v>0.05347974304410013</v>
       </c>
       <c r="B4" s="0">
-        <v>0.076982198449801365</v>
+        <v>-0.053479744490016336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0065085432529051121</v>
+        <v>-0.025331793880731899</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0065085440701183076</v>
+        <v>0.025331792427029917</v>
       </c>
     </row>
   </sheetData>
